--- a/src/main/resources/excel/StResource.xlsx
+++ b/src/main/resources/excel/StResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\hellost\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F8DCE-7921-416A-B027-0F88BA43E2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966CDD89-A64A-4D63-9FFF-FC5710804A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>600398</t>
-  </si>
-  <si>
-    <t>海海</t>
+    <t>000998</t>
+  </si>
+  <si>
+    <t>601952</t>
+  </si>
+  <si>
+    <t>小苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆平</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,75 +501,73 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1163,14 +1168,7 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -1181,8 +1179,8 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
@@ -1193,14 +1191,11 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
